--- a/data/Parametrization/energy_parametrization.xlsx
+++ b/data/Parametrization/energy_parametrization.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/Parametrization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{7A670D7B-8200-48D9-A500-337199C750CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B03F46-FC56-4FBF-91B2-4EEBD94574D5}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{7A670D7B-8200-48D9-A500-337199C750CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F9AA3B1-4DF7-4C0C-B601-112698F98EB5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-705" windowWidth="29040" windowHeight="15720" xr2:uid="{4C164FA9-0898-4590-A2CB-ABAB6A34C59F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C164FA9-0898-4590-A2CB-ABAB6A34C59F}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="3" r:id="rId1"/>
     <sheet name="ta" sheetId="1" r:id="rId2"/>
     <sheet name="energy" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RECAP!$A$1:$O$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2065,10 +2068,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C999F820-F23B-4947-B9A7-47D771FBE0BB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2209,7 +2214,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>441</v>
       </c>
@@ -2349,7 +2354,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>446</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>460</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>1.1810594530320999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>499</v>
       </c>
@@ -2882,7 +2887,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>503</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>363</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>370</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>387</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>399</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>393</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -3219,7 +3224,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O33" xr:uid="{C999F820-F23B-4947-B9A7-47D771FBE0BB}">
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
